--- a/Schedule of Thesis.xlsx
+++ b/Schedule of Thesis.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Start Date</t>
   </si>
@@ -75,9 +78,6 @@
     <t>Writing of Synthesis of the Study</t>
   </si>
   <si>
-    <t>Finalization (Chapter 1-3)</t>
-  </si>
-  <si>
     <t>Writing of Chapter 3</t>
   </si>
   <si>
@@ -102,9 +102,6 @@
     <t>Writing of Research Instrument</t>
   </si>
   <si>
-    <t>Writing of Data Generration/Gathering Procedure</t>
-  </si>
-  <si>
     <t>Writing of Statistical Treatment of Data</t>
   </si>
   <si>
@@ -115,6 +112,21 @@
   </si>
   <si>
     <t>Marzo, Pauline</t>
+  </si>
+  <si>
+    <t>Writing of Data Generation/Gathering Procedure</t>
+  </si>
+  <si>
+    <t>Finalization (Chapter 1-3) Proofreading Done</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Doing</t>
   </si>
 </sst>
 </file>
@@ -122,8 +134,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="170" formatCode="[$-3409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-3409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -259,7 +271,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1">
@@ -268,7 +280,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -277,13 +289,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -301,7 +310,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -624,10 +632,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -636,11 +644,12 @@
     <col min="2" max="3" width="20.77734375" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" style="1" customWidth="1"/>
     <col min="5" max="6" width="20.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="9" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -653,19 +662,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2">
+      <c r="I1" s="2">
         <f ca="1">TODAY()</f>
-        <v>43318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>19</v>
+        <v>43319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="B2" s="7">
         <v>43338</v>
@@ -674,14 +686,14 @@
         <v>43341</v>
       </c>
       <c r="D2" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>23</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A3" s="12" t="s">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>22</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="7">
@@ -691,14 +703,18 @@
         <v>43322</v>
       </c>
       <c r="D3" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>4</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A4" s="12" t="s">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7">
@@ -708,133 +724,143 @@
         <v>43329</v>
       </c>
       <c r="D4" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>11</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A5" s="13" t="s">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>10</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7">
         <v>43335</v>
       </c>
-      <c r="D5" s="10">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>17</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="D5" s="9">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>16</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="7">
+        <v>43319</v>
+      </c>
+      <c r="C6" s="7">
+        <v>43320</v>
+      </c>
       <c r="D6" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A7" s="12" t="s">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="7">
+        <v>43319</v>
+      </c>
+      <c r="C7" s="7">
+        <v>43320</v>
+      </c>
       <c r="D7" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A8" s="12" t="s">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A9" s="12" t="s">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A10" s="12" t="s">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>30</v>
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A12" s="12" t="s">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A13" s="12" t="s">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A14" s="13" t="s">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="7"/>
@@ -842,16 +868,16 @@
         <v>43337</v>
       </c>
       <c r="D14" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>19</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A15" s="12" t="s">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>18</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="7"/>
@@ -859,16 +885,16 @@
         <v>43337</v>
       </c>
       <c r="D15" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>19</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="19.95" customHeight="1">
-      <c r="A16" s="12" t="s">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>18</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="7"/>
@@ -876,16 +902,16 @@
         <v>43337</v>
       </c>
       <c r="D16" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>19</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="9"/>
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>18</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="7"/>
@@ -893,223 +919,254 @@
         <v>43337</v>
       </c>
       <c r="D17" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>18</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A18" s="13" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7">
+        <v>43339</v>
+      </c>
+      <c r="D18" s="8">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
         <v>20</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="9"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7">
+        <v>43339</v>
+      </c>
+      <c r="D19" s="8">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>20</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7">
+        <v>43339</v>
+      </c>
+      <c r="D20" s="8">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>20</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7">
+        <v>43339</v>
+      </c>
+      <c r="D21" s="8">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>20</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>43339</v>
+      </c>
+      <c r="D22" s="8">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>20</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7">
+        <v>43339</v>
+      </c>
+      <c r="D23" s="8">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>20</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7">
+        <v>43339</v>
+      </c>
+      <c r="D24" s="8">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>20</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A25" s="12" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7">
+        <v>43339</v>
+      </c>
+      <c r="D25" s="8">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>20</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7">
+        <v>43339</v>
+      </c>
+      <c r="D26" s="8">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>20</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A26" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="1">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="1">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="14"/>
+      <c r="C27" s="7">
+        <v>43339</v>
+      </c>
+      <c r="D27" s="8">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>20</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A28" s="12"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="1">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="15"/>
+      <c r="D28" s="8">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A29" s="12"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="1">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="15"/>
+      <c r="D29" s="8">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A30" s="12"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="1">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="15"/>
+      <c r="D30" s="8">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A31" s="12"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="1">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="15"/>
+      <c r="D31" s="8">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="19.95" customHeight="1">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="1">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A33" s="12"/>
+      <c r="D32" s="8">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A33" s="11"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="1">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A34" s="12"/>
+      <c r="D33" s="8">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A34" s="11"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="1">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A35" s="12"/>
+      <c r="D34" s="8">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" ht="19.95" customHeight="1">
+      <c r="A35" s="11"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="1">
-        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-G1))</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="15"/>
+      <c r="D35" s="8">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
   <conditionalFormatting sqref="D2:D1048576">
     <cfRule type="containsBlanks" dxfId="2" priority="5" stopIfTrue="1">
       <formula>LEN(TRIM(D2))=0</formula>

--- a/Schedule of Thesis.xlsx
+++ b/Schedule of Thesis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Start Date</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>Doing</t>
+  </si>
+  <si>
+    <t>Mercado, Nel</t>
+  </si>
+  <si>
+    <t>Alcala, Michael</t>
+  </si>
+  <si>
+    <t>Garcia, Jasper</t>
   </si>
 </sst>
 </file>
@@ -635,7 +644,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -736,7 +745,9 @@
       <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7">
+        <v>43319</v>
+      </c>
       <c r="C5" s="7">
         <v>43335</v>
       </c>
@@ -745,7 +756,9 @@
         <v>16</v>
       </c>
       <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="19.95" customHeight="1">
       <c r="A6" s="11" t="s">
@@ -762,7 +775,9 @@
         <v>1</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="19.95" customHeight="1">
       <c r="A7" s="11" t="s">
@@ -779,85 +794,111 @@
         <v>1</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="19.95" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7">
+        <v>43335</v>
+      </c>
       <c r="D8" s="8">
         <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="19.95" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7">
+        <v>43335</v>
+      </c>
       <c r="D9" s="8">
         <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="19.95" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7">
+        <v>43335</v>
+      </c>
       <c r="D10" s="8">
         <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="19.95" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7">
+        <v>43335</v>
+      </c>
       <c r="D11" s="8">
         <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="19.95" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7">
+        <v>43335</v>
+      </c>
       <c r="D12" s="8">
         <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="19.95" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7">
+        <v>43335</v>
+      </c>
       <c r="D13" s="8">
         <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="19.95" customHeight="1">
       <c r="A14" s="12" t="s">

--- a/Schedule of Thesis.xlsx
+++ b/Schedule of Thesis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Start Date</t>
   </si>
@@ -644,7 +644,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
@@ -774,7 +774,9 @@
         <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
         <v>1</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="F6" s="13" t="s">
         <v>36</v>
       </c>
@@ -793,7 +795,9 @@
         <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)),0,IF(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1=0,"DEADLINE",OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1)-I1))</f>
         <v>1</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="F7" s="13" t="s">
         <v>30</v>
       </c>
